--- a/biology/Médecine/Prix_Paul-Ehrlich-et-Ludwig-Darmstaedter/Prix_Paul-Ehrlich-et-Ludwig-Darmstaedter.xlsx
+++ b/biology/Médecine/Prix_Paul-Ehrlich-et-Ludwig-Darmstaedter/Prix_Paul-Ehrlich-et-Ludwig-Darmstaedter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le prix Paul-Ehrlich-et-Ludwig-Darmstaedter (Paul-Ehrlich-und-Ludwig-Darmstaedter-Preis) récompense des travaux de recherche en médecine. Il est attribué chaque année depuis 1952 par la fondation Paul-Ehrlich (de), et doté d'une gratification de 100 000 euros. La cérémonie de remise du prix se déroule traditionnellement le 14 mars, anniversaire de la naissance de Paul Ehrlich, dans l'église Saint-Paul de Francfort.
@@ -517,8 +529,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1952-2003
-1952 : Gerhard Eissner (de) (Tubingue) • Wolf-Helmut Wagner (de) (Nonnenhorn)
+          <t>1952-2003</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1952 : Gerhard Eissner (de) (Tubingue) • Wolf-Helmut Wagner (de) (Nonnenhorn)
 1953 : Adolf Butenandt (Munich)
 1954 : Ernst Chain (Londres)
 1956 : Gerhard Domagk (Elberfeld)
@@ -566,9 +583,43 @@
 2000 : Robert Horvitz (Cambridge) • John Kerr (de) (Brisbane)
 2001 : Stephen Harrison (de) (Cambridge) • Michael Rossmann (West Lafayette)
 2002 : Craig Venter (Rockville)
-2003 : Richard Lerner (La Jolla) • Peter G. Schultz (La Jolla)
-2004-2023
-2004 : Tak Wah Mak (en) (Canada) et Mark Davis (de) (États-Unis) « pour leurs recherches sur les récepteurs des cellules T ».
+2003 : Richard Lerner (La Jolla) • Peter G. Schultz (La Jolla)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Prix_Paul-Ehrlich-et-Ludwig-Darmstaedter</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Paul-Ehrlich-et-Ludwig-Darmstaedter</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2004-2023</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2004 : Tak Wah Mak (en) (Canada) et Mark Davis (de) (États-Unis) « pour leurs recherches sur les récepteurs des cellules T ».
 2005 : Ian Wilmut, « père » de Dolly, (Écosse) « pour ses expériences sur le clonage des mammifères ».
 2006 : Craig C. Mello (États-Unis) et Andrew Z. Fire (États-Unis) « pour leurs recherches sur les interférences par ARN ».
 2007 : Ada Yonath (Israël) et Harry Noller (États-Unis) « pour leurs contributions aux recherches sur la structure et la fonction des ribosomes ».
@@ -577,59 +628,96 @@
 2010 : Charles Dinarello (États-Unis) « pour ses contributions remarquables à l'étude des cytokines ».
 2011 : Cesare Montecucco (de) (Italie) « pour sa contribution à la recherche sur les maladies bactériennes, dont le tétanos, le botulisme, la maladie du charbon et celles liées à Helicobacter pylori ».
 2012 : Peter Walter (États-Unis) « pour ses contributions remarquables à la recherche en biologie cellulaire, et plus particulièrement pour la découverte des particules de reconnaissance du signal ».
-2013 : Mary-Claire King[1] (États-Unis) « pour ses contributions exceptionnelles dans le domaine de la génétique humaine ».
+2013 : Mary-Claire King (États-Unis) « pour ses contributions exceptionnelles dans le domaine de la génétique humaine ».
 2014 : Michael Reth (de) (Allemagne), « pour ses découvertes sur l'activation des cellules B du système immunitaire et leur effet sur la production des anticorps ».
-2015 : James Allison (États-Unis) et Carl H. June (de) (États-Unis)[2].
-2016 : Emmanuelle Charpentier (France) et Jennifer Doudna (États-Unis), « pour la mise au point de l'outil de sectionnement du génome CRISPR/Cas9 »[3].
+2015 : James Allison (États-Unis) et Carl H. June (de) (États-Unis).
+2016 : Emmanuelle Charpentier (France) et Jennifer Doudna (États-Unis), « pour la mise au point de l'outil de sectionnement du génome CRISPR/Cas9 ».
 2017 : Yuan Chang (en) (États-Unis) et Patrick S. Moore (en) (États-Unis), « pour leurs travaux sur les virus oncogènes ».
 2018 : Anthony Cerami (en) (États-Unis) et David Wallach (en) (Israël), « pour leurs recherches sur le TNF (facteur de nécrose tumorale) et ses effets sur le processus inflammatoire ».
 2019 : Franz-Ulrich Hartl et Arthur Horwich.
-2020 : Shimon Sakaguchi[4].
+2020 : Shimon Sakaguchi.
 2021 : Michael Silverman (en) et Bonnie Bassler.
 2022 : Katalin Karikó, Özlem Türeci et Uğur Şahin.
 2023 : Frederick Alt (en) et David Schatz (de).</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Prix_Paul-Ehrlich-et-Ludwig-Darmstaedter</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Prix_Paul-Ehrlich-et-Ludwig-Darmstaedter</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Le prix pour les jeunes chercheurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Depuis 2006, un prix Paul-Ehrlich-et-Ludwig-Darmstaedter-pour-les-jeunes-chercheurs (Paul-Ehrlich-und-Ludwig-Darmstaedter-Nachwuchspreis), doté de 60 000 euros, est attribué à un scientifique de moins de quarante ans, en récompense d'une contribution significative à la recherche biomédicale en Allemagne.
-Lauréats
-2006 : Ana Martin-Villalba (de)(Heidelberg)
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2006, un prix Paul-Ehrlich-et-Ludwig-Darmstaedter-pour-les-jeunes-chercheurs (Paul-Ehrlich-und-Ludwig-Darmstaedter-Nachwuchspreis), doté de 60 000 euros, est attribué à un scientifique de moins de quarante ans, en récompense d'une contribution significative à la recherche biomédicale en Allemagne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Prix_Paul-Ehrlich-et-Ludwig-Darmstaedter</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Paul-Ehrlich-et-Ludwig-Darmstaedter</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Le prix pour les jeunes chercheurs</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2006 : Ana Martin-Villalba (de)(Heidelberg)
 2007 : Michael Schindler (de) (Ulm)
 2008 : Eckhard Lammert (de) (Dresde)
 2009 : Falk Nimmerjahn (de) (Erlangen-Nuremberg)
 2010 : Amparo Acker-Palmer (de) (Francfort)
 2011 : Stephan Grill (de) (Dresde)
 2012 : Kathrin Mädler (de) (Brême)
-2013 : James Poulet (de)[5] (Berlin-Buch (centre Max-Delbrück (de)))
+2013 : James Poulet (de) (Berlin-Buch (centre Max-Delbrück (de)))
 2014 : Andrea Ablasser (Bonn)
-2015 : Raja Atreya (de) (Erlangen-Nuremberg[2])
-2016 : Claus-Dieter Kuhn (de) (Bayreuth), « pour la mise en évidence des fonctions des acides ribonucléiques qui ne sont pas dégradés dans les protéines[6] ».
+2015 : Raja Atreya (de) (Erlangen-Nuremberg)
+2016 : Claus-Dieter Kuhn (de) (Bayreuth), « pour la mise en évidence des fonctions des acides ribonucléiques qui ne sont pas dégradés dans les protéines ».
 2017 : Volker Busskamp (de) (université technique de Dresde)
 2018 : Tim J. Schulz (de) (université de Potsdam)
 2019 : Dorothee Dormann (de) (université Louis-et-Maximilien de Munich)
@@ -639,31 +727,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Prix_Paul-Ehrlich-et-Ludwig-Darmstaedter</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Prix_Paul-Ehrlich-et-Ludwig-Darmstaedter</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(de) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en allemand intitulé « Paul-Ehrlich-und-Ludwig-Darmstaedter-Preis » (voir la liste des auteurs).
 (de) « Paul Ehrlich-Stiftung : Bekanntgabe der Preisträger », sur le site officiel de l'université Goethe. (Consulté le 11 juin 2013.)</t>
